--- a/Data/Input data.xlsx
+++ b/Data/Input data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus\Desktop\Graduate School New\Antarctic Production Scaling\Scaling Manuscript\Scaling Paper Codes\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moore\Desktop\Graduate School New\Antarctic Production Scaling\Scaling Manuscript\Scaling Paper Codes\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9DA0A-83BD-43DB-8806-223FB8BB00E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5487DA-7199-4016-BFD0-BEA88F227692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{8341ED14-962C-4ADA-A215-05A8A2859F36}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8341ED14-962C-4ADA-A215-05A8A2859F36}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Results" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -1079,18 +1078,12 @@
     <t xml:space="preserve">Weighted average calcs. </t>
   </si>
   <si>
-    <t>SLHL Production Rates from K</t>
-  </si>
-  <si>
     <t>Rate</t>
   </si>
   <si>
     <t>Error</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Normalized to Be-10 in qtz.</t>
   </si>
   <si>
@@ -1100,9 +1093,6 @@
     <t>Normalized to Cl-36 from K.</t>
   </si>
   <si>
-    <t xml:space="preserve">apparent age </t>
-  </si>
-  <si>
     <t xml:space="preserve">z-test </t>
   </si>
   <si>
@@ -1191,8 +1181,54 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>atoms g K</t>
+    <t>chi-squared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction-Specific </t>
+  </si>
+  <si>
+    <t>Uniform-flux</t>
+  </si>
+  <si>
+    <t>Calibrated SLHL Production Rates from Fe (output from codes)</t>
+  </si>
+  <si>
+    <t>Sierra Nevada Quartz (from Moore &amp; Granger, 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Averages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">apparent age* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Age used to compute the scaling factor averaging time. </t>
+  </si>
+  <si>
+    <t>Neutron capture</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">atoms </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g Cl</t>
     </r>
     <r>
       <rPr>
@@ -1226,24 +1262,6 @@
       </rPr>
       <t>-1</t>
     </r>
-  </si>
-  <si>
-    <t>chi-squared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction-Specific </t>
-  </si>
-  <si>
-    <t>Uniform-flux</t>
-  </si>
-  <si>
-    <t>Calibrated SLHL Production Rates from Fe (output from codes)</t>
-  </si>
-  <si>
-    <t>Sierra Nevada Quartz (from Moore &amp; Granger, 2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Averages </t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1273,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1324,6 +1342,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1450,7 +1474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1492,51 +1516,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1560,9 +1570,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1600,7 +1610,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1706,7 +1716,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1848,7 +1858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1858,32 +1868,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2937BC77-44AF-41C5-A870-8A16B4FD8670}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="88.6328125" customWidth="1"/>
+    <col min="2" max="2" width="88.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1899,7 +1909,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1915,7 +1925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1931,7 +1941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1939,7 +1949,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1947,7 +1957,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1965,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1963,7 +1973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1971,7 +1981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1979,7 +1989,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1987,7 +1997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2003,7 +2013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2019,7 +2029,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2027,7 +2037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2035,7 +2045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2051,7 +2061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2059,7 +2069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2075,7 +2085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2098,20 +2108,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F58410-CEFF-4596-9DB3-182C71CC47C2}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="13" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" style="2" customWidth="1"/>
-    <col min="15" max="17" width="12.6328125" customWidth="1"/>
+    <col min="1" max="13" width="12.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="2" customWidth="1"/>
+    <col min="15" max="17" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>6289.7564240093861</v>
       </c>
       <c r="F2" s="6">
-        <v>2.0010339401148594</v>
+        <v>2.2718444608220683</v>
       </c>
       <c r="G2" s="6">
         <v>6.5747430632707077E-2</v>
@@ -2211,7 +2221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2228,7 +2238,7 @@
         <v>4571.3352937222808</v>
       </c>
       <c r="F3" s="6">
-        <v>0.5469964744156961</v>
+        <v>0.54851268974263989</v>
       </c>
       <c r="G3" s="6">
         <v>9.4194257711923746E-2</v>
@@ -2261,7 +2271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +2288,7 @@
         <v>4609.5257902838084</v>
       </c>
       <c r="F4" s="6">
-        <v>1.2405061523810179</v>
+        <v>1.2482390786415285</v>
       </c>
       <c r="G4" s="6">
         <v>2.2477066605615246E-2</v>
@@ -2311,7 +2321,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2361,10 +2371,10 @@
         <v>0.9035878238204017</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -2407,7 +2417,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2418,7 +2428,7 @@
         <v>16610.264806348601</v>
       </c>
       <c r="D8" s="26">
-        <v>27.782243002116509</v>
+        <v>28.538045866153702</v>
       </c>
       <c r="E8" s="26">
         <v>0.44556653913504224</v>
@@ -2445,14 +2455,14 @@
         <v>43</v>
       </c>
       <c r="M8" s="6">
-        <v>10.290052521257863</v>
+        <v>2.6475729262039502</v>
       </c>
       <c r="N8" s="6">
         <v>0.42524545935559888</v>
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2463,7 +2473,7 @@
         <v>16184.818211711967</v>
       </c>
       <c r="D9" s="26">
-        <v>25.499139522241414</v>
+        <v>24.978736820403547</v>
       </c>
       <c r="E9" s="26">
         <v>0.12937179100779433</v>
@@ -2490,14 +2500,14 @@
         <v>43</v>
       </c>
       <c r="M9" s="6">
-        <v>13.264752343429503</v>
+        <v>4.396682094680207</v>
       </c>
       <c r="N9" s="6">
         <v>0.12638079513200834</v>
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2508,7 +2518,7 @@
         <v>29846.718416847179</v>
       </c>
       <c r="D10" s="26">
-        <v>43.096805999506159</v>
+        <v>42.531379142254586</v>
       </c>
       <c r="E10" s="26">
         <v>0.26773877773892069</v>
@@ -2535,14 +2545,14 @@
         <v>43</v>
       </c>
       <c r="M10" s="6">
-        <v>22.424596015102168</v>
+        <v>1.99176554571311</v>
       </c>
       <c r="N10" s="6">
         <v>0.26183802985883398</v>
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2587,7 +2597,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2596,7 +2606,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>26</v>
@@ -2614,10 +2624,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2650,7 @@
         <v>23227.761843120959</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2663,7 +2673,7 @@
         <v>23787.915132707156</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2686,7 +2696,7 @@
         <v>25191.943372120168</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2709,7 +2719,7 @@
         <v>35404.389224383718</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2729,10 +2739,10 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="G18" s="25">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2752,10 +2762,10 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="G19" s="25">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2775,10 +2785,10 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="G20" s="25">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2798,10 +2808,10 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="G21" s="25">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2821,20 +2831,25 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="G22" s="25">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2845,27 +2860,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34541FF0-3D53-4A2B-9263-1F636A5E618E}">
-  <dimension ref="A1:AK48"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="18" width="10.6328125" customWidth="1"/>
-    <col min="19" max="19" width="12.6328125" style="29" customWidth="1"/>
-    <col min="20" max="20" width="16.90625" style="29" customWidth="1"/>
-    <col min="21" max="21" width="13.36328125" style="29" customWidth="1"/>
-    <col min="22" max="28" width="12.6328125" style="29" customWidth="1"/>
-    <col min="29" max="30" width="12.6328125" customWidth="1"/>
-    <col min="31" max="31" width="10.6328125" customWidth="1"/>
+    <col min="2" max="18" width="10.59765625" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" customWidth="1"/>
+    <col min="20" max="20" width="16.9296875" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
+    <col min="22" max="30" width="12.59765625" customWidth="1"/>
+    <col min="31" max="31" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="8"/>
@@ -2885,44 +2899,38 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="T1" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="32" t="s">
-        <v>100</v>
+      <c r="AB1" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="29"/>
       <c r="AE1" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-      <c r="AI1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E2" s="8"/>
       <c r="G2" s="8" t="s">
@@ -2939,512 +2947,441 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R2" s="1"/>
       <c r="T2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="20"/>
       <c r="AC2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD2" s="29"/>
+        <v>109</v>
+      </c>
       <c r="AE2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-    </row>
-    <row r="3" spans="1:37" ht="16.5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" s="33">
+        <v>114</v>
+      </c>
+      <c r="T3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3" s="28">
         <f>(U3-G23)^2/H23^2</f>
-        <v>0.12461393664081839</v>
-      </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33">
+        <v>1.6710214150026468E-2</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6">
         <f>(G23/H23^2+G12/H12^2)/(1/H23^2+1/H12^2)</f>
-        <v>1.2157781340943834</v>
-      </c>
-      <c r="Y3" s="33">
+        <v>1.1962831871468513</v>
+      </c>
+      <c r="Y3" s="6">
         <f>(X3-G23)^2/H23^2</f>
-        <v>0.94660449197693963</v>
-      </c>
-      <c r="AA3"/>
+        <v>1.2776468521166515</v>
+      </c>
       <c r="AB3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" s="29"/>
+        <v>108</v>
+      </c>
       <c r="AF3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="2">
-        <v>0.61012299999999997</v>
+        <v>0.54166700000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.108419</v>
+        <v>0.110142</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="10">
         <f>C4*C30*D40/(D30*C40*$F$28)</f>
-        <v>0.52247252857771487</v>
+        <v>0.4676313050496293</v>
       </c>
       <c r="H4" s="10">
         <f>D4/C4*G4</f>
-        <v>9.2843490699198797E-2</v>
+        <v>9.5087659393642721E-2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="N4" s="23">
-        <f>G4/H4^2</f>
-        <v>60.612268615294219</v>
+        <f t="shared" ref="N4:N9" si="0">G4/H4^2</f>
+        <v>51.719612493291685</v>
       </c>
       <c r="O4" s="23">
-        <f t="shared" ref="O4" si="0">1/H4^2</f>
-        <v>116.0104413150566</v>
+        <f t="shared" ref="O4" si="1">1/H4^2</f>
+        <v>110.59912357194034</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
-      <c r="T4" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="U4" s="33">
+      <c r="T4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" s="6">
         <v>1.0960000000000001</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4" s="28">
         <f>(U4-G24)^2/H24^2</f>
-        <v>0.2814620777531201</v>
-      </c>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33">
+        <v>0.20953735768882648</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6">
         <f>(G24/H24^2+G25/H25^2+G13/H13^2)/(1/H24^2+1/H25^2+1/H13^2)</f>
-        <v>1.1886439008967107</v>
-      </c>
-      <c r="Y4" s="33">
+        <v>1.1937900081596082</v>
+      </c>
+      <c r="Y4" s="6">
         <f>(X4-G24)^2/H24^2</f>
-        <v>1.4659292071599441</v>
+        <v>1.9067869680014329</v>
       </c>
       <c r="AA4" t="s">
         <v>63</v>
       </c>
       <c r="AB4" s="2">
         <f>(G12-G23)/SQRT(H12^2+H23^2)</f>
-        <v>1.884763080091292</v>
-      </c>
-      <c r="AC4" s="2">
+        <v>2.2295810716237958</v>
+      </c>
+      <c r="AC4" s="42">
         <f>_xlfn.NORM.DIST(AB4,0,1,TRUE)</f>
-        <v>0.9702690842004017</v>
-      </c>
-      <c r="AD4" s="29"/>
+        <v>0.98711236618900422</v>
+      </c>
       <c r="AE4" t="s">
         <v>1</v>
       </c>
-      <c r="AF4" s="4">
-        <v>160.27699999999999</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>12.706</v>
-      </c>
-      <c r="AI4" s="2">
-        <f>AF4/AG4^2</f>
-        <v>0.99278110496300986</v>
-      </c>
-      <c r="AJ4" s="2">
-        <f>1/AG4^2</f>
-        <v>6.1941582695147143E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AF4" s="42">
+        <v>0.25830292953161288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>1.333941</v>
+        <v>1.2886340000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>9.3526999999999999E-2</v>
+        <v>9.1069999999999998E-2</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="10">
         <f>C5*C31*D41/(D31*C41*$F$28)</f>
-        <v>1.1423814441979894</v>
+        <v>1.1125748553017134</v>
       </c>
       <c r="H5" s="10">
         <f>D5/C5*G5</f>
-        <v>8.009612818820723E-2</v>
+        <v>7.8627594858064462E-2</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="N5" s="4">
-        <f>G5/H5^2</f>
-        <v>178.06890751507518</v>
+        <f t="shared" si="0"/>
+        <v>179.96135646619112</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:O9" si="1">1/H5^2</f>
-        <v>155.87517498595992</v>
+        <f t="shared" ref="O5:O9" si="2">1/H5^2</f>
+        <v>161.75213344848453</v>
       </c>
       <c r="Q5" s="4">
         <f>C5/D5^2</f>
-        <v>152.49746108248397</v>
+        <v>155.37420255112983</v>
       </c>
       <c r="R5" s="4">
         <f>1/D5^2</f>
-        <v>114.32099401883889</v>
-      </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="U5" s="33">
+        <v>120.57279456473275</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" s="6">
         <v>1.3859999999999999</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="28">
         <f>(U5-G12)^2/H12^2</f>
-        <v>3.2756250279408622E-2</v>
-      </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33">
+        <v>3.9464085265275492E-3</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6">
         <f>$X$3</f>
-        <v>1.2157781340943834</v>
-      </c>
-      <c r="Y5" s="33">
+        <v>1.1962831871468513</v>
+      </c>
+      <c r="Y5" s="6">
         <f>(X5-G12)^2/H12^2</f>
-        <v>2.6057273760982747</v>
-      </c>
-      <c r="Z5" s="30"/>
+        <v>3.6933849028264634</v>
+      </c>
+      <c r="Z5" s="4"/>
       <c r="AA5" t="s">
         <v>61</v>
       </c>
       <c r="AB5" s="2">
         <f>(G13-G24)/SQRT(H13^2+H24^2)</f>
-        <v>1.5093921052944597</v>
-      </c>
-      <c r="AC5" s="2">
+        <v>1.6404975572615459</v>
+      </c>
+      <c r="AC5" s="42">
         <f>_xlfn.NORM.DIST(AB5,0,1,TRUE)</f>
-        <v>0.93440069530919989</v>
-      </c>
-      <c r="AD5" s="30"/>
+        <v>0.94954912202310715</v>
+      </c>
+      <c r="AD5" s="4"/>
       <c r="AE5" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" s="4">
-        <v>145.81399999999999</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>14.262</v>
-      </c>
-      <c r="AI5" s="2">
-        <f>AF5/AG5^2</f>
-        <v>0.7168666217866686</v>
-      </c>
-      <c r="AJ5" s="2">
-        <f>1/AG5^2</f>
-        <v>4.9163085971626087E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AF5" s="42">
+        <v>0.18450618155215479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="2">
-        <v>1.3758520000000001</v>
+        <v>1.3360069999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>9.5218999999999998E-2</v>
+        <v>9.3126E-2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="10">
         <f>C6*C32*D42/(D32*C42*$F$28)</f>
-        <v>1.1786282239829236</v>
+        <v>1.1538224545660083</v>
       </c>
       <c r="H6" s="10">
         <f>D6/C6*G6</f>
-        <v>8.1569675269890937E-2</v>
+        <v>8.0426876433966357E-2</v>
       </c>
       <c r="N6" s="4">
-        <f>G6/H6^2</f>
-        <v>177.14111335470474</v>
+        <f t="shared" si="0"/>
+        <v>178.3760662509564</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="1"/>
-        <v>150.29430803556866</v>
+        <f t="shared" si="2"/>
+        <v>154.5957660514153</v>
       </c>
       <c r="Q6" s="4">
         <f>C6/D6^2</f>
-        <v>151.74852805942308</v>
+        <v>154.05182053500278</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" ref="R6:R9" si="2">1/D6^2</f>
-        <v>110.29422354978811</v>
-      </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="U6" s="33">
+        <f t="shared" ref="R6:R9" si="3">1/D6^2</f>
+        <v>115.30764474662391</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" s="6">
         <v>1.296</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6" s="28">
         <f>(U6-G13)^2/H13^2</f>
-        <v>4.5279859704882935E-2</v>
-      </c>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33">
+        <v>8.4177831507164982E-3</v>
+      </c>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6">
         <f>$X$4</f>
-        <v>1.1886439008967107</v>
-      </c>
-      <c r="Y6" s="33">
+        <v>1.1937900081596082</v>
+      </c>
+      <c r="Y6" s="6">
         <f>(X6-G13)^2/H13^2</f>
-        <v>1.0557844430495422</v>
-      </c>
-      <c r="Z6" s="30"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AD6" s="30"/>
+        <v>1.1654409510262931</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AD6" s="4"/>
       <c r="AE6" t="s">
         <v>3</v>
       </c>
-      <c r="AF6" s="4">
-        <v>148.81700000000001</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>12.958</v>
-      </c>
-      <c r="AI6" s="2">
-        <f>AF6/AG6^2</f>
-        <v>0.8862915202477446</v>
-      </c>
-      <c r="AJ6" s="2">
-        <f>1/AG6^2</f>
-        <v>5.9555798077353022E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AF6" s="42">
+        <v>0.19335156942219406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>0.67300400000000005</v>
+        <v>0.56938100000000003</v>
       </c>
       <c r="D7" s="2">
-        <v>0.118078</v>
+        <v>0.116881</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="12">
         <f>C7*C30*B40/(B30*C40*$F$28)</f>
-        <v>0.5540604938319168</v>
+        <v>0.47257162981522344</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" ref="H7:H9" si="3">D7/C7*G7</f>
-        <v>9.7209459365301051E-2</v>
+        <f t="shared" ref="H7:H9" si="4">D7/C7*G7</f>
+        <v>9.7008232913344705E-2</v>
       </c>
       <c r="N7" s="23">
-        <f>G7/H7^2</f>
-        <v>58.632731801019467</v>
+        <f t="shared" si="0"/>
+        <v>50.216964674170107</v>
       </c>
       <c r="O7" s="23">
-        <f t="shared" ref="O7" si="4">1/H7^2</f>
-        <v>105.82370057737171</v>
+        <f t="shared" ref="O7" si="5">1/H7^2</f>
+        <v>106.26318108390267</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
-      <c r="T7" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="U7" s="33">
+      <c r="T7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" s="6">
         <v>1.2230000000000001</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="28">
         <f>(U7-G25)^2/H25^2</f>
-        <v>0.17949576293061881</v>
-      </c>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33">
+        <v>3.1138809757207557E-2</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6">
         <f>$X$4</f>
-        <v>1.1886439008967107</v>
-      </c>
-      <c r="Y7" s="33">
+        <v>1.1937900081596082</v>
+      </c>
+      <c r="Y7" s="6">
         <f>(X7-G25)^2/H25^2</f>
-        <v>0.18953974429110518</v>
-      </c>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>155.33000000000001</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>3.6456</v>
-      </c>
-      <c r="AI7" s="2">
-        <f>AF7/AG7^2</f>
-        <v>11.687383937272447</v>
-      </c>
-      <c r="AJ7" s="2">
-        <f>1/AG7^2</f>
-        <v>7.5242283765354065E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.30029621206100732</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>1.3352200000000001</v>
+        <v>1.3205640000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>9.3253000000000003E-2</v>
+        <v>9.2479000000000006E-2</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="12">
         <f>C8*C31*B41/(B31*C41*$F$28)</f>
-        <v>1.0993308786331379</v>
+        <v>1.096125263158674</v>
       </c>
       <c r="H8" s="12">
+        <f t="shared" si="4"/>
+        <v>7.6761571731208039E-2</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="0"/>
+        <v>186.02549560663707</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="2"/>
+        <v>169.71189503521933</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" ref="Q8:Q9" si="6">C8/D8^2</f>
+        <v>154.40921100836292</v>
+      </c>
+      <c r="R8" s="4">
         <f t="shared" si="3"/>
-        <v>7.6778285544836067E-2</v>
-      </c>
-      <c r="N8" s="4">
-        <f>G8/H8^2</f>
-        <v>186.48830713388165</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="1"/>
-        <v>169.63801413979513</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" ref="Q8:Q9" si="5">C8/D8^2</f>
-        <v>153.54200396660971</v>
-      </c>
-      <c r="R8" s="4">
-        <f t="shared" si="2"/>
-        <v>114.99378676668242</v>
-      </c>
-      <c r="S8" s="30"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AD8" s="30"/>
-    </row>
-    <row r="9" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>116.92671540975138</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2">
-        <v>1.392949</v>
+        <v>1.3762529999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>8.9601E-2</v>
+        <v>8.8838E-2</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="12">
         <f>C9*C32*B42/(B32*C42*$F$28)</f>
-        <v>1.1472249167126418</v>
+        <v>1.1427119507383894</v>
       </c>
       <c r="H9" s="12">
+        <f t="shared" si="4"/>
+        <v>7.3762777832053442E-2</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="0"/>
+        <v>210.02076809331783</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="2"/>
+        <v>183.79152152702011</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="6"/>
+        <v>174.38163012432321</v>
+      </c>
+      <c r="R9" s="4">
         <f t="shared" si="3"/>
-        <v>7.3794876741624729E-2</v>
-      </c>
-      <c r="N9" s="4">
-        <f>G9/H9^2</f>
-        <v>210.66682382385034</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="1"/>
-        <v>183.63166695116192</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="5"/>
-        <v>173.5040043931497</v>
-      </c>
-      <c r="R9" s="4">
-        <f t="shared" si="2"/>
-        <v>124.55876302229996</v>
-      </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="U9" s="33"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF9" s="3">
-        <f>SUM(AI4:AI7)/SUM(AJ4:AJ7)</f>
-        <v>154.73493146525996</v>
-      </c>
-      <c r="AG9" s="3">
-        <f>1/SQRT(SUM(Results!AJ4:AJ7))</f>
-        <v>3.2913915661862201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+        <v>126.70753860251219</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3454,31 +3391,29 @@
       <c r="O10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="36" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="U10" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="V10" s="38">
+      <c r="U10" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="V10" s="32">
         <f>SUM(V4,V6,V7)</f>
-        <v>0.50623770038862181</v>
-      </c>
-      <c r="W10" s="38"/>
-      <c r="X10" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y10" s="39">
+        <v>0.24909395059675055</v>
+      </c>
+      <c r="W10" s="32"/>
+      <c r="X10" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="33">
         <f>SUM(Y4,Y6,Y7)</f>
-        <v>2.7112533945005914</v>
-      </c>
-      <c r="Z10" s="30"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AD10" s="30"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+        <v>3.3725241310887331</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AD10" s="4"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>52</v>
       </c>
@@ -3491,28 +3426,28 @@
       <c r="O11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="V11" s="42">
+      <c r="S11" s="4"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" s="28">
         <f>V10/2</f>
-        <v>0.25311885019431091</v>
-      </c>
-      <c r="W11" s="42"/>
-      <c r="X11" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y11" s="43">
+        <v>0.12454697529837527</v>
+      </c>
+      <c r="W11" s="28"/>
+      <c r="X11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" s="35">
         <f>Y10/2</f>
-        <v>1.3556266972502957</v>
-      </c>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+        <v>1.6862620655443665</v>
+      </c>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -3523,52 +3458,52 @@
         <v>9.1035000000000005E-2</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="G12" s="10">
+      <c r="G12" s="44">
         <f>C12*C33*D43/(D33*C43*$F$28)</f>
-        <v>1.3688388515826841</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" ref="H12:H13" si="6">D12/C12*G12</f>
-        <v>9.4819848465857295E-2</v>
+        <v>1.3799948285252135</v>
+      </c>
+      <c r="H12" s="44">
+        <f t="shared" ref="H12:H13" si="7">D12/C12*G12</f>
+        <v>9.5592626095565986E-2</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" ref="N12:N13" si="7">G12/H12^2</f>
-        <v>152.24877584664313</v>
+        <f t="shared" ref="N12:N13" si="8">G12/H12^2</f>
+        <v>151.01798584818448</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" ref="O12:O13" si="8">1/H12^2</f>
-        <v>111.22476226519247</v>
+        <f t="shared" ref="O12:O13" si="9">1/H12^2</f>
+        <v>109.43373317534521</v>
       </c>
       <c r="Q12" s="4">
         <f>C12/D12^2</f>
         <v>158.57863299709973</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" ref="R12:R13" si="9">1/D12^2</f>
+        <f t="shared" ref="R12:R13" si="10">1/D12^2</f>
         <v>120.66552503203449</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="V12" s="42">
+      <c r="S12" s="4"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="28">
         <f>1-_xlfn.CHISQ.DIST(V10,2,TRUE)</f>
-        <v>0.7763756039488372</v>
-      </c>
-      <c r="W12" s="42"/>
-      <c r="X12" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y12" s="43">
+        <v>0.88289678605227884</v>
+      </c>
+      <c r="W12" s="28"/>
+      <c r="X12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" s="35">
         <f>1-_xlfn.CHISQ.DIST(Y10,2,TRUE)</f>
-        <v>0.25778569023541964</v>
-      </c>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.18521053655471398</v>
+      </c>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -3579,42 +3514,42 @@
         <v>8.8860999999999996E-2</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="G13" s="12">
+      <c r="G13" s="45">
         <f>C13*C33*B43/(B33*C43*$F$28)</f>
-        <v>1.2775816387782728</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="6"/>
-        <v>8.6556253433574329E-2</v>
+        <v>1.2879938734163603</v>
+      </c>
+      <c r="H13" s="45">
+        <f t="shared" si="7"/>
+        <v>8.7261683124162229E-2</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="7"/>
-        <v>170.5264542489214</v>
+        <f t="shared" si="8"/>
+        <v>169.14790619035708</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="8"/>
-        <v>133.4759745075803</v>
+        <f t="shared" si="9"/>
+        <v>131.32663879968464</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" ref="Q13" si="10">C13/D13^2</f>
+        <f t="shared" ref="Q13" si="11">C13/D13^2</f>
         <v>166.10358865079687</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>126.64195536047335</v>
       </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="S13" s="4"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3623,32 +3558,32 @@
       <c r="O14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="40" t="s">
+      <c r="S14" s="4"/>
+      <c r="T14" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="U14" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="V14" s="42">
+      <c r="U14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V14" s="28">
         <f>SUM(V3,V5)</f>
-        <v>0.15737018692022703</v>
-      </c>
-      <c r="W14" s="42"/>
-      <c r="X14" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y14" s="43">
+        <v>2.0656622676554017E-2</v>
+      </c>
+      <c r="W14" s="28"/>
+      <c r="X14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="35">
         <f>SUM(Y3,Y5)</f>
-        <v>3.5523318680752141</v>
-      </c>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+        <v>4.9710317549431151</v>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3658,28 +3593,28 @@
       <c r="O15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="V15" s="42">
+      <c r="S15" s="4"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V15" s="28">
         <f>V14/1</f>
-        <v>0.15737018692022703</v>
-      </c>
-      <c r="W15" s="42"/>
-      <c r="X15" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y15" s="43">
+        <v>2.0656622676554017E-2</v>
+      </c>
+      <c r="W15" s="28"/>
+      <c r="X15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y15" s="35">
         <f>Y14/1</f>
-        <v>3.5523318680752141</v>
-      </c>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-    </row>
-    <row r="16" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.9710317549431151</v>
+      </c>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3692,50 +3627,50 @@
       <c r="E16" s="2"/>
       <c r="G16" s="12">
         <f>C16*C34*B44/(B34*C44*$F$28)</f>
-        <v>1.319327249730448</v>
+        <v>1.3300797092771841</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" ref="H16:H20" si="11">D16/C16*G16</f>
-        <v>9.3841393395063907E-2</v>
+        <f t="shared" ref="H16:H20" si="12">D16/C16*G16</f>
+        <v>9.4606196658618052E-2</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" ref="N16:N20" si="12">G16/H16^2</f>
-        <v>149.81787648214473</v>
+        <f t="shared" ref="N16:N20" si="13">G16/H16^2</f>
+        <v>148.60673804809736</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" ref="O16:O20" si="13">1/H16^2</f>
-        <v>113.55626628098074</v>
+        <f t="shared" ref="O16:O20" si="14">1/H16^2</f>
+        <v>111.7276934694808</v>
       </c>
       <c r="Q16" s="4">
         <f>C16/D16^2</f>
         <v>137.82141565210938</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" ref="R16:R20" si="14">1/D16^2</f>
+        <f t="shared" ref="R16:R20" si="15">1/D16^2</f>
         <v>96.098640411968276</v>
       </c>
-      <c r="S16" s="30"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="V16" s="46">
+      <c r="S16" s="4"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" s="38">
         <f>1-_xlfn.CHISQ.DIST(V14,1,TRUE)</f>
-        <v>0.69158935373263164</v>
-      </c>
-      <c r="W16" s="46"/>
-      <c r="X16" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y16" s="47">
+        <v>0.88571832391694993</v>
+      </c>
+      <c r="W16" s="38"/>
+      <c r="X16" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="39">
         <f>1-_xlfn.CHISQ.DIST(Y14,1,TRUE)</f>
-        <v>5.9461831599196713E-2</v>
-      </c>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+        <v>2.577526762199156E-2</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3748,40 +3683,40 @@
       <c r="E17" s="2"/>
       <c r="G17" s="12">
         <f>C17*C35*B45/(B35*C45*$F$28)</f>
-        <v>1.2362852129261412</v>
+        <v>1.2463608834945559</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="11"/>
-        <v>9.3039829250402314E-2</v>
+        <f t="shared" si="12"/>
+        <v>9.3798099801135335E-2</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="12"/>
-        <v>142.81731545080834</v>
+        <f t="shared" si="13"/>
+        <v>141.66277005307967</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="13"/>
-        <v>115.52133274552125</v>
+        <f t="shared" si="14"/>
+        <v>113.66111687963486</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" ref="Q17:Q20" si="15">C17/D17^2</f>
+        <f t="shared" ref="Q17:Q20" si="16">C17/D17^2</f>
         <v>131.36525345799683</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>97.737556257015086</v>
       </c>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3794,40 +3729,40 @@
       <c r="E18" s="2"/>
       <c r="G18" s="12">
         <f>C18*C36*B46/(B36*C46*$F$28)</f>
-        <v>1.1500104416728019</v>
+        <v>1.1593829766181216</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="11"/>
-        <v>9.1827920654598896E-2</v>
+        <f t="shared" si="12"/>
+        <v>9.2576314203129964E-2</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="12"/>
-        <v>136.38050147374963</v>
+        <f t="shared" si="13"/>
+        <v>135.27799174081261</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="13"/>
-        <v>118.59066364247175</v>
+        <f t="shared" si="14"/>
+        <v>116.6810229829436</v>
       </c>
       <c r="Q18" s="4">
+        <f t="shared" si="16"/>
+        <v>125.41907136944906</v>
+      </c>
+      <c r="R18" s="4">
         <f t="shared" si="15"/>
-        <v>125.41907136944906</v>
-      </c>
-      <c r="R18" s="4">
-        <f t="shared" si="14"/>
         <v>100.29357104687335</v>
       </c>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3840,40 +3775,40 @@
       <c r="E19" s="2"/>
       <c r="G19" s="12">
         <f>C19*C37*B47/(B37*C47*$F$28)</f>
-        <v>1.1498734472560315</v>
+        <v>1.1592448657028289</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" si="11"/>
-        <v>7.7072964503562338E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.7701105802956333E-2</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="12"/>
-        <v>193.57350674701939</v>
+        <f t="shared" si="13"/>
+        <v>192.00864466687509</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="13"/>
-        <v>168.34331396115644</v>
+        <f t="shared" si="14"/>
+        <v>165.63251677674134</v>
       </c>
       <c r="Q19" s="4">
+        <f t="shared" si="16"/>
+        <v>177.65382928186244</v>
+      </c>
+      <c r="R19" s="4">
         <f t="shared" si="15"/>
-        <v>177.65382928186244</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" si="14"/>
         <v>141.79247489627059</v>
       </c>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3886,53 +3821,53 @@
       <c r="E20" s="2"/>
       <c r="G20" s="12">
         <f>C20*C38*B48/(B38*C48*$F$28)</f>
-        <v>1.2037616010613192</v>
+        <v>1.2135722056114571</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" si="11"/>
-        <v>9.5705602419587296E-2</v>
+        <f t="shared" si="12"/>
+        <v>9.6485598905389353E-2</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="12"/>
-        <v>131.42130126979922</v>
+        <f t="shared" si="13"/>
+        <v>130.35888206617804</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="13"/>
-        <v>109.17552209169085</v>
+        <f t="shared" si="14"/>
+        <v>107.41749148786482</v>
       </c>
       <c r="Q20" s="4">
+        <f t="shared" si="16"/>
+        <v>120.53374663158777</v>
+      </c>
+      <c r="R20" s="4">
         <f t="shared" si="15"/>
-        <v>120.53374663158777</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" si="14"/>
         <v>91.835599168611168</v>
       </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="35"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="T21" s="4"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="28"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3942,89 +3877,79 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="31"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S22" s="2"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <f>SUM(N4:N6)/SUM(O4:O6)</f>
-        <v>0.98494093516762704</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="43">
+        <f>SUM(N5:N6)/SUM(O5:O6)</f>
+        <v>1.132732106910231</v>
+      </c>
+      <c r="H23" s="43">
         <f>1/SQRT(SUM(O5:O6))</f>
-        <v>5.7150370412468419E-2</v>
-      </c>
-      <c r="G23" s="48">
-        <f>SUM(N5:N6)/SUM(O5:O6)</f>
-        <v>1.160174480370413</v>
-      </c>
-      <c r="H23" s="48">
-        <f>1/SQRT(SUM(O5:O6))</f>
-        <v>5.7150370412468419E-2</v>
+        <v>5.6223454016505074E-2</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="T23" s="2"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2">
-        <f>SUM(N7:N9)/SUM(O7:O9)</f>
-        <v>0.99279989857931472</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="43">
+        <f>SUM(N8:N9)/SUM(O8:O9)</f>
+        <v>1.1203463535131781</v>
+      </c>
+      <c r="H24" s="43">
         <f>1/SQRT(SUM(O8:O9))</f>
-        <v>5.3204310196944354E-2</v>
-      </c>
-      <c r="G24" s="48">
-        <f>SUM(N8:N9)/SUM(O8:O9)</f>
-        <v>1.1242264825309922</v>
-      </c>
-      <c r="H24" s="48">
-        <f>1/SQRT(SUM(O8:O9))</f>
-        <v>5.3204310196944354E-2</v>
+        <v>5.318671801786843E-2</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -4033,65 +3958,65 @@
       <c r="E25" s="2"/>
       <c r="G25" s="2">
         <f>SUM(N16:N20)/SUM(O16:O20)</f>
-        <v>1.2060557598918409</v>
+        <v>1.2158850617363943</v>
       </c>
       <c r="H25" s="2">
         <f>1/SQRT(SUM(O16:O20))</f>
-        <v>3.9994014184794258E-2</v>
+        <v>4.0319963656179354E-2</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-    </row>
-    <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-    </row>
-    <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" s="2">
         <f>SUM(Q5:Q20)/SUM(R5:R20)</f>
-        <v>1.3304741048891398</v>
+        <v>1.3197184570200546</v>
       </c>
       <c r="G28" s="2">
         <f>1/SQRT(SUM(R5:R20))</f>
-        <v>2.8406877559650177E-2</v>
+        <v>2.8232596247311153E-2</v>
       </c>
       <c r="H28" t="s">
         <v>60</v>
       </c>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>0</v>
       </c>
@@ -4104,13 +4029,13 @@
       <c r="D29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -4123,13 +4048,25 @@
       <c r="D30" s="2">
         <v>3.2395</v>
       </c>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -4142,13 +4079,25 @@
       <c r="D31" s="2">
         <v>3.2442000000000002</v>
       </c>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -4161,15 +4110,27 @@
       <c r="D32" s="2">
         <v>3.2654999999999998</v>
       </c>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
       <c r="AC32" s="22"/>
       <c r="AD32" s="22"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -4182,13 +4143,25 @@
       <c r="D33" s="2">
         <v>19.038699999999999</v>
       </c>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4201,13 +4174,19 @@
       <c r="D34" s="2">
         <v>9.3313000000000006</v>
       </c>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -4220,13 +4199,13 @@
       <c r="D35" s="2">
         <v>9.3203999999999994</v>
       </c>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -4239,13 +4218,13 @@
       <c r="D36" s="2">
         <v>9.3038000000000007</v>
       </c>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -4258,13 +4237,13 @@
       <c r="D37" s="2">
         <v>9.1979000000000006</v>
       </c>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -4277,13 +4256,13 @@
       <c r="D38" s="2">
         <v>9.1448999999999998</v>
       </c>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>64</v>
       </c>
@@ -4291,7 +4270,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -4305,7 +4284,7 @@
         <v>0.81579999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -4319,7 +4298,7 @@
         <v>0.81728000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -4333,7 +4312,7 @@
         <v>0.82167000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4347,7 +4326,7 @@
         <v>0.88800999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -4361,7 +4340,7 @@
         <v>0.78408</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -4375,7 +4354,7 @@
         <v>0.78410000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -4389,7 +4368,7 @@
         <v>0.78408999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4403,7 +4382,7 @@
         <v>0.78783999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>8</v>
       </c>

--- a/Data/Input data.xlsx
+++ b/Data/Input data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moore\Desktop\Graduate School New\Antarctic Production Scaling\Scaling Manuscript\Scaling Paper Codes\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moore\Desktop\Graduate School New\Antarctic Production Scaling\Scaling Manuscript\Scaling Paper Codes\Altitude-scaling-of-Cl-36-production-from-Fe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5487DA-7199-4016-BFD0-BEA88F227692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6230BE5-EAEF-4EBA-8F87-E532A90B68B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8341ED14-962C-4ADA-A215-05A8A2859F36}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8341ED14-962C-4ADA-A215-05A8A2859F36}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="10" r:id="rId1"/>
@@ -1569,6 +1569,938 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Results!$G$8:$G$9,Results!$G$13,Results!$G$16:$G$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.096125263158674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1427119507383894</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>1.2879938734163603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3300797092771841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2463608834945559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1593829766181216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1592448657028289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2135722056114571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Results!$I$8:$I$9,Results!$I$13,Results!$I$16:$I$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8133-4573-A5EB-1FE9352ECAF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1577229088"/>
+        <c:axId val="1577231488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1577229088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577231488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1577231488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577229088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDF20B8-7DEC-C23A-AC72-1A12ACCCFBFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1868,7 +2800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2937BC77-44AF-41C5-A870-8A16B4FD8670}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2862,8 +3794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34541FF0-3D53-4A2B-9263-1F636A5E618E}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3249,6 +4181,9 @@
         <f t="shared" ref="H7:H9" si="4">D7/C7*G7</f>
         <v>9.7008232913344705E-2</v>
       </c>
+      <c r="I7">
+        <v>1600</v>
+      </c>
       <c r="N7" s="23">
         <f t="shared" si="0"/>
         <v>50.216964674170107</v>
@@ -3304,6 +4239,9 @@
       <c r="H8" s="12">
         <f t="shared" si="4"/>
         <v>7.6761571731208039E-2</v>
+      </c>
+      <c r="I8">
+        <v>1600</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
@@ -3350,6 +4288,9 @@
       <c r="H9" s="12">
         <f t="shared" si="4"/>
         <v>7.3762777832053442E-2</v>
+      </c>
+      <c r="I9">
+        <v>1600</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
@@ -3522,6 +4463,9 @@
         <f t="shared" si="7"/>
         <v>8.7261683124162229E-2</v>
       </c>
+      <c r="I13">
+        <v>4300</v>
+      </c>
       <c r="N13" s="4">
         <f t="shared" si="8"/>
         <v>169.14790619035708</v>
@@ -3633,6 +4577,9 @@
         <f t="shared" ref="H16:H20" si="12">D16/C16*G16</f>
         <v>9.4606196658618052E-2</v>
       </c>
+      <c r="I16">
+        <v>3300</v>
+      </c>
       <c r="N16" s="4">
         <f t="shared" ref="N16:N20" si="13">G16/H16^2</f>
         <v>148.60673804809736</v>
@@ -3688,6 +4635,9 @@
       <c r="H17" s="12">
         <f t="shared" si="12"/>
         <v>9.3798099801135335E-2</v>
+      </c>
+      <c r="I17">
+        <v>3300</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="13"/>
@@ -3735,6 +4685,9 @@
         <f t="shared" si="12"/>
         <v>9.2576314203129964E-2</v>
       </c>
+      <c r="I18">
+        <v>3300</v>
+      </c>
       <c r="N18" s="4">
         <f t="shared" si="13"/>
         <v>135.27799174081261</v>
@@ -3781,6 +4734,9 @@
         <f t="shared" si="12"/>
         <v>7.7701105802956333E-2</v>
       </c>
+      <c r="I19">
+        <v>3300</v>
+      </c>
       <c r="N19" s="4">
         <f t="shared" si="13"/>
         <v>192.00864466687509</v>
@@ -3826,6 +4782,9 @@
       <c r="H20" s="12">
         <f t="shared" si="12"/>
         <v>9.6485598905389353E-2</v>
+      </c>
+      <c r="I20">
+        <v>3300</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="13"/>
@@ -4398,5 +5357,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>